--- a/UseCaseIScenarij/Odabir destinacije vodica.xlsx
+++ b/UseCaseIScenarij/Odabir destinacije vodica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Opis:</t>
   </si>
@@ -37,9 +37,6 @@
     <t>1. Pristup aplikaciji i login</t>
   </si>
   <si>
-    <t>3. Odabir zeljene destinacije</t>
-  </si>
-  <si>
     <t>Sistem</t>
   </si>
   <si>
@@ -55,22 +52,28 @@
     <t>Vodic dobija poruku</t>
   </si>
   <si>
-    <t>2. Prikaz destinacija gdje moze raditi</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Nakon sto je pregledao sve destinacije koje su mu u opticaju za posao, bira jednu na kojoj zeli raditi, potom prima obavijest da je postao vodic na tom putovanju.</t>
   </si>
   <si>
-    <t>4. Prikaz detalja o odabranoj destinaciji</t>
-  </si>
-  <si>
-    <t>5. Odabir date destinacije za posao</t>
-  </si>
-  <si>
-    <t>6. Slanje poruke obavjestenja</t>
-  </si>
-  <si>
     <t>Vodic</t>
+  </si>
+  <si>
+    <t>2. Verifikacija login-a</t>
+  </si>
+  <si>
+    <t>3. Prikaz destinacija gdje moze raditi</t>
+  </si>
+  <si>
+    <t>4. Odabir zeljene destinacije</t>
+  </si>
+  <si>
+    <t>5. Prikaz detalja o odabranoj destinaciji</t>
+  </si>
+  <si>
+    <t>6. Odabir date destinacije za posao</t>
+  </si>
+  <si>
+    <t>7. Slanje poruke obavjestenja</t>
   </si>
 </sst>
 </file>
@@ -235,7 +238,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -246,27 +249,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -276,25 +301,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -601,8 +610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10:D10"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,77 +629,77 @@
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
-      <c r="C3" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="17"/>
-      <c r="E3" s="18" t="s">
+      <c r="C3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
       <c r="J3" s="1"/>
     </row>
     <row r="4" spans="2:10" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="1"/>
     </row>
     <row r="5" spans="2:10" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="11"/>
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="11"/>
       <c r="J6" s="1"/>
     </row>
     <row r="7" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="11"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="2:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -711,7 +720,7 @@
     <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="14" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D10" s="14"/>
       <c r="E10" s="14" t="s">
@@ -719,7 +728,7 @@
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H10" s="14"/>
       <c r="I10" s="1"/>
@@ -731,106 +740,108 @@
         <v>6</v>
       </c>
       <c r="D11" s="16"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="18"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
     </row>
     <row r="12" spans="2:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="5"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="18"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="18"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
     <row r="13" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
-      <c r="C13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="21"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="18"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="2:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="5"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
+      <c r="C14" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
     <row r="15" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
-      <c r="C15" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="12"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
+      <c r="C15" s="19"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="18"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="18"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="2:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H16" s="5"/>
+      <c r="C16" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="18"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="18"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="18"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="19"/>
-      <c r="C17" s="16"/>
+    <row r="17" spans="2:10" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="5"/>
+      <c r="C17" s="15"/>
       <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="3"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="22"/>
+      <c r="I17" s="4"/>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="19"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="12"/>
-      <c r="H18" s="12"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
       <c r="I18" s="3"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
     </row>
@@ -841,27 +852,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="E6:I6"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:I7"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -878,6 +868,27 @@
     <mergeCell ref="C14:D14"/>
     <mergeCell ref="E14:F14"/>
     <mergeCell ref="G14:H14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="E6:I6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
